--- a/Results/Scenario2-TwoSkillsThreeHighThreeLow-OneSkillAllMedium/LearningBased/WithFigures/TeamStats.xlsx
+++ b/Results/Scenario2-TwoSkillsThreeHighThreeLow-OneSkillAllMedium/LearningBased/WithFigures/TeamStats.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="TeamStats" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>sprint</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>idlePeriod</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
@@ -176,7 +179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +357,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -517,9 +526,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -729,11 +740,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1802669312"/>
-        <c:axId val="1802666592"/>
+        <c:axId val="-765367248"/>
+        <c:axId val="-765375408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1802669312"/>
+        <c:axId val="-765367248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,7 +780,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1802666592"/>
+        <c:crossAx val="-765375408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -777,7 +788,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1802666592"/>
+        <c:axId val="-765375408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -788,7 +799,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1802669312"/>
+        <c:crossAx val="-765367248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -963,11 +974,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1802674752"/>
-        <c:axId val="1802669856"/>
+        <c:axId val="-765368336"/>
+        <c:axId val="-765374320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1802674752"/>
+        <c:axId val="-765368336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1003,7 +1014,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1802669856"/>
+        <c:crossAx val="-765374320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1011,7 +1022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1802669856"/>
+        <c:axId val="-765374320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,7 +1033,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1802674752"/>
+        <c:crossAx val="-765368336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1323,11 +1334,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1802670944"/>
-        <c:axId val="1802675840"/>
+        <c:axId val="-765372688"/>
+        <c:axId val="-765372144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1802670944"/>
+        <c:axId val="-765372688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1363,7 +1374,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1802675840"/>
+        <c:crossAx val="-765372144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1371,7 +1382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1802675840"/>
+        <c:axId val="-765372144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1409,7 +1420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1802670944"/>
+        <c:crossAx val="-765372688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1804,10 +1815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B14" sqref="B14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,6 +2047,27 @@
         <v>40</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3">
+        <f>AVERAGE(B2:B13)</f>
+        <v>2.7054295946252029</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" ref="C14:E14" si="0">AVERAGE(C2:C13)</f>
+        <v>182.5</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>67.75</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>12.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Results/Scenario2-TwoSkillsThreeHighThreeLow-OneSkillAllMedium/LearningBased/WithFigures/TeamStats.xlsx
+++ b/Results/Scenario2-TwoSkillsThreeHighThreeLow-OneSkillAllMedium/LearningBased/WithFigures/TeamStats.xlsx
@@ -740,11 +740,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-765367248"/>
-        <c:axId val="-765375408"/>
+        <c:axId val="465621440"/>
+        <c:axId val="465624704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-765367248"/>
+        <c:axId val="465621440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -780,7 +780,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-765375408"/>
+        <c:crossAx val="465624704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -788,7 +788,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-765375408"/>
+        <c:axId val="465624704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +799,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-765367248"/>
+        <c:crossAx val="465621440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -974,11 +974,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-765368336"/>
-        <c:axId val="-765374320"/>
+        <c:axId val="465615456"/>
+        <c:axId val="465621984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-765368336"/>
+        <c:axId val="465615456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,7 +1014,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-765374320"/>
+        <c:crossAx val="465621984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1022,7 +1022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-765374320"/>
+        <c:axId val="465621984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1033,7 +1033,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-765368336"/>
+        <c:crossAx val="465615456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1334,11 +1334,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-765372688"/>
-        <c:axId val="-765372144"/>
+        <c:axId val="465612192"/>
+        <c:axId val="465627424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-765372688"/>
+        <c:axId val="465612192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,7 +1374,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-765372144"/>
+        <c:crossAx val="465627424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1382,7 +1382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-765372144"/>
+        <c:axId val="465627424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1420,7 +1420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-765372688"/>
+        <c:crossAx val="465612192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1435,6 +1435,435 @@
           <c:y val="0.83776064856675481"/>
           <c:w val="0.11750059928020019"/>
           <c:h val="0.15599110152342985"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Team Velocity vs Story</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> Points</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t> -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> Learning</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t> Based</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12711967112419434"/>
+          <c:y val="9.5808371187279459E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5833274006327852E-2"/>
+          <c:y val="0.13412493009257956"/>
+          <c:w val="0.86648807858317178"/>
+          <c:h val="0.73392707700478388"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Story Points</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>TeamStats!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="494583312"/>
+        <c:axId val="494584400"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Team Velocity</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>TeamStats!$A$2:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TeamStats!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.9643369690011401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1609840789036201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1583641871423702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.09504257395752</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0726714431934399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3736090953072</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5831905820607202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.67557358701734</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3080786763464398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6464302880171502</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7184380004770499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.70843565407844</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="494585488"/>
+        <c:axId val="494584944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="494583312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="2000" b="0"/>
+                  <a:t>Sprints</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42647195487964024"/>
+              <c:y val="0.9097339293401947"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="494584400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="494584400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494583312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="494584944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494585488"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="494585488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="494584944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74459247499865644"/>
+          <c:y val="0.76010715449640509"/>
+          <c:w val="0.18400439075028518"/>
+          <c:h val="0.11549963185444773"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1544,6 +1973,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>601116</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1817,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S51" sqref="S51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Results/Scenario2-TwoSkillsThreeHighThreeLow-OneSkillAllMedium/LearningBased/WithFigures/TeamStats.xlsx
+++ b/Results/Scenario2-TwoSkillsThreeHighThreeLow-OneSkillAllMedium/LearningBased/WithFigures/TeamStats.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\CourseWork\GitHubRepositories\AgileSoftwareModel\AgileSoftwareModel\Results\Scenario2-TwoSkillsThreeHighThreeLow-OneSkillAllMedium\LearningBased\WithFigures\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -592,7 +587,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -739,12 +734,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="465621440"/>
-        <c:axId val="465624704"/>
+        <c:axId val="101705216"/>
+        <c:axId val="101707136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="465621440"/>
+        <c:axId val="101705216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -780,7 +776,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="465624704"/>
+        <c:crossAx val="101707136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -788,7 +784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="465624704"/>
+        <c:axId val="101707136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +795,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="465621440"/>
+        <c:crossAx val="101705216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -833,7 +829,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -973,12 +969,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="465615456"/>
-        <c:axId val="465621984"/>
+        <c:axId val="103402880"/>
+        <c:axId val="103409152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="465615456"/>
+        <c:axId val="103402880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,7 +1011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="465621984"/>
+        <c:crossAx val="103409152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1022,7 +1019,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="465621984"/>
+        <c:axId val="103409152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1033,7 +1030,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="465615456"/>
+        <c:crossAx val="103402880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1067,7 +1064,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1334,11 +1331,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="465612192"/>
-        <c:axId val="465627424"/>
+        <c:axId val="108300544"/>
+        <c:axId val="108315008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="465612192"/>
+        <c:axId val="108300544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,7 +1371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="465627424"/>
+        <c:crossAx val="108315008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1382,7 +1379,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="465627424"/>
+        <c:axId val="108315008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1420,7 +1417,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="465612192"/>
+        <c:crossAx val="108300544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1454,7 +1451,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1524,6 +1521,132 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Team Velocity</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>TeamStats!$A$2:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TeamStats!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.9643369690011401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1609840789036201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1583641871423702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.09504257395752</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0726714431934399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3736090953072</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5831905820607202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.67557358701734</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3080786763464398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6464302880171502</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7184380004770499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.70843565407844</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="109390464"/>
+        <c:axId val="109400832"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -1596,137 +1719,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494583312"/>
-        <c:axId val="494584400"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Team Velocity</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>TeamStats!$A$2:$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>TeamStats!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.9643369690011401</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1609840789036201</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.1583641871423702</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.09504257395752</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0726714431934399</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3736090953072</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.5831905820607202</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.67557358701734</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.3080786763464398</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.6464302880171502</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.7184380004770499</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.70843565407844</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="494585488"/>
-        <c:axId val="494584944"/>
+        <c:axId val="114475392"/>
+        <c:axId val="112818048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="494583312"/>
+        <c:axId val="109390464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1762,7 +1759,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494584400"/>
+        <c:crossAx val="109400832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1770,14 +1767,14 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="494584400"/>
+        <c:axId val="109400832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1795,28 +1792,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494583312"/>
+        <c:crossAx val="109390464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="494584944"/>
+        <c:axId val="112818048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -1831,23 +1821,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494585488"/>
+        <c:crossAx val="114475392"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="494585488"/>
+        <c:axId val="114475392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494584944"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="112818048"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2268,7 +2256,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2279,7 +2267,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S51" sqref="S51"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Results/Scenario2-TwoSkillsThreeHighThreeLow-OneSkillAllMedium/LearningBased/WithFigures/TeamStats.xlsx
+++ b/Results/Scenario2-TwoSkillsThreeHighThreeLow-OneSkillAllMedium/LearningBased/WithFigures/TeamStats.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\CourseWork\GitHubRepositories\AgileSoftwareModel\AgileSoftwareModel\Results\Scenario2-TwoSkillsThreeHighThreeLow-OneSkillAllMedium\LearningBased\WithFigures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>sprint</t>
   </si>
@@ -32,6 +37,15 @@
   </si>
   <si>
     <t>average</t>
+  </si>
+  <si>
+    <t>Idle Periods</t>
+  </si>
+  <si>
+    <t>Average idle period</t>
+  </si>
+  <si>
+    <t>average working period</t>
   </si>
 </sst>
 </file>
@@ -174,7 +188,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,8 +374,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -476,6 +496,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -521,11 +569,26 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -587,7 +650,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -734,13 +797,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101705216"/>
-        <c:axId val="101707136"/>
+        <c:axId val="-897696800"/>
+        <c:axId val="-897704960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101705216"/>
+        <c:axId val="-897696800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +838,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101707136"/>
+        <c:crossAx val="-897704960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -784,7 +846,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101707136"/>
+        <c:axId val="-897704960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -795,7 +857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101705216"/>
+        <c:crossAx val="-897696800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -829,7 +891,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -969,13 +1031,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103402880"/>
-        <c:axId val="103409152"/>
+        <c:axId val="-897697888"/>
+        <c:axId val="-897698976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103402880"/>
+        <c:axId val="-897697888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,7 +1072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103409152"/>
+        <c:crossAx val="-897698976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1019,7 +1080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103409152"/>
+        <c:axId val="-897698976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1030,7 +1091,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103402880"/>
+        <c:crossAx val="-897697888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1064,7 +1125,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1331,11 +1392,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="108300544"/>
-        <c:axId val="108315008"/>
+        <c:axId val="-897702784"/>
+        <c:axId val="-897696256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108300544"/>
+        <c:axId val="-897702784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1371,7 +1432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108315008"/>
+        <c:crossAx val="-897696256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1379,7 +1440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108315008"/>
+        <c:axId val="-897696256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1417,7 +1478,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108300544"/>
+        <c:crossAx val="-897702784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1451,7 +1512,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1473,15 +1534,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-NZ"/>
-              <a:t>Team Velocity vs Story</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-NZ" baseline="0"/>
-              <a:t> Points</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-NZ"/>
-              <a:t> -</a:t>
+              <a:t>Team Velocity vs Average Working Hours -</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-NZ" baseline="0"/>
@@ -1513,7 +1566,7 @@
           <c:yMode val="edge"/>
           <c:x val="6.5833274006327852E-2"/>
           <c:y val="0.13412493009257956"/>
-          <c:w val="0.86648807858317178"/>
+          <c:w val="0.88073258023120227"/>
           <c:h val="0.73392707700478388"/>
         </c:manualLayout>
       </c:layout>
@@ -1640,8 +1693,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109390464"/>
-        <c:axId val="109400832"/>
+        <c:axId val="-897701152"/>
+        <c:axId val="-897710944"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1650,7 +1703,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Story Points</c:v>
+            <c:strRef>
+              <c:f>TeamStats!$L$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average working period</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln>
@@ -1664,45 +1725,45 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>TeamStats!$C$2:$C$13</c:f>
+              <c:f>TeamStats!$L$35:$L$46</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>73</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156</c:v>
+                  <c:v>55.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>171</c:v>
+                  <c:v>70.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>166</c:v>
+                  <c:v>63.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>162</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>157</c:v>
+                  <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>189</c:v>
+                  <c:v>65.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>204</c:v>
+                  <c:v>67.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>209</c:v>
+                  <c:v>57.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>263</c:v>
+                  <c:v>66.833333333333329</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>291</c:v>
+                  <c:v>73.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>149</c:v>
+                  <c:v>37.666666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1719,16 +1780,27 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114475392"/>
-        <c:axId val="112818048"/>
+        <c:axId val="-897709856"/>
+        <c:axId val="-897705504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109390464"/>
+        <c:axId val="-897701152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1759,7 +1831,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109400832"/>
+        <c:crossAx val="-897710944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1767,7 +1839,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109400832"/>
+        <c:axId val="-897710944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1792,18 +1864,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109390464"/>
+        <c:crossAx val="-897701152"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112818048"/>
+        <c:axId val="-897705504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1821,21 +1893,22 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114475392"/>
+        <c:crossAx val="-897709856"/>
         <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="114475392"/>
+        <c:axId val="-897709856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112818048"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="-897705504"/>
+        <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1848,9 +1921,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.74459247499865644"/>
-          <c:y val="0.76010715449640509"/>
-          <c:w val="0.18400439075028518"/>
+          <c:x val="0.6613031284914791"/>
+          <c:y val="0.75719280499200492"/>
+          <c:w val="0.2940022342746092"/>
           <c:h val="0.11549963185444773"/>
         </c:manualLayout>
       </c:layout>
@@ -1904,16 +1977,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>153523</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>153802</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>262379</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>31338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>34180</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>129990</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>143037</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7526</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1968,16 +2041,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>487456</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>72838</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>601116</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>272141</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>49026</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2256,7 +2329,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2264,10 +2337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD47" sqref="AD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2517,7 +2590,443 @@
         <v>12.25</v>
       </c>
     </row>
+    <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>1</v>
+      </c>
+      <c r="B35" s="6">
+        <v>53</v>
+      </c>
+      <c r="C35" s="5">
+        <v>43</v>
+      </c>
+      <c r="D35" s="5">
+        <v>56</v>
+      </c>
+      <c r="E35" s="5">
+        <v>44</v>
+      </c>
+      <c r="F35" s="5">
+        <v>54</v>
+      </c>
+      <c r="G35" s="5">
+        <v>44</v>
+      </c>
+      <c r="I35" s="6">
+        <f>AVERAGE(B35:G35)</f>
+        <v>49</v>
+      </c>
+      <c r="L35" s="6">
+        <f>80-I35</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>2</v>
+      </c>
+      <c r="B36" s="6">
+        <v>25</v>
+      </c>
+      <c r="C36" s="5">
+        <v>23</v>
+      </c>
+      <c r="D36" s="5">
+        <v>34</v>
+      </c>
+      <c r="E36" s="5">
+        <v>29</v>
+      </c>
+      <c r="F36" s="5">
+        <v>8</v>
+      </c>
+      <c r="G36" s="5">
+        <v>29</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" ref="I36:I46" si="1">AVERAGE(B36:G36)</f>
+        <v>24.666666666666668</v>
+      </c>
+      <c r="L36" s="6">
+        <f t="shared" ref="L36:L46" si="2">80-I36</f>
+        <v>55.333333333333329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>3</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5">
+        <v>11</v>
+      </c>
+      <c r="D37" s="5">
+        <v>7</v>
+      </c>
+      <c r="E37" s="5">
+        <v>7</v>
+      </c>
+      <c r="F37" s="5">
+        <v>15</v>
+      </c>
+      <c r="G37" s="5">
+        <v>16</v>
+      </c>
+      <c r="I37" s="6">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+      <c r="L37" s="6">
+        <f t="shared" si="2"/>
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>4</v>
+      </c>
+      <c r="B38" s="6">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5">
+        <v>12</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2</v>
+      </c>
+      <c r="E38" s="5">
+        <v>80</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5">
+        <v>5</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" si="1"/>
+        <v>16.833333333333332</v>
+      </c>
+      <c r="L38" s="6">
+        <f t="shared" si="2"/>
+        <v>63.166666666666671</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>5</v>
+      </c>
+      <c r="B39" s="6">
+        <v>11</v>
+      </c>
+      <c r="C39" s="5">
+        <v>18</v>
+      </c>
+      <c r="D39" s="5">
+        <v>6</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2</v>
+      </c>
+      <c r="F39" s="5">
+        <v>80</v>
+      </c>
+      <c r="G39" s="5">
+        <v>3</v>
+      </c>
+      <c r="I39" s="6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="L39" s="6">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>6</v>
+      </c>
+      <c r="B40" s="6">
+        <v>23</v>
+      </c>
+      <c r="C40" s="5">
+        <v>14</v>
+      </c>
+      <c r="D40" s="5">
+        <v>21</v>
+      </c>
+      <c r="E40" s="5">
+        <v>24</v>
+      </c>
+      <c r="F40" s="5">
+        <v>23</v>
+      </c>
+      <c r="G40" s="5">
+        <v>18</v>
+      </c>
+      <c r="I40" s="6">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="L40" s="6">
+        <f t="shared" si="2"/>
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>7</v>
+      </c>
+      <c r="B41" s="6">
+        <v>20</v>
+      </c>
+      <c r="C41" s="5">
+        <v>15</v>
+      </c>
+      <c r="D41" s="5">
+        <v>7</v>
+      </c>
+      <c r="E41" s="5">
+        <v>23</v>
+      </c>
+      <c r="F41" s="5">
+        <v>16</v>
+      </c>
+      <c r="G41" s="5">
+        <v>8</v>
+      </c>
+      <c r="I41" s="6">
+        <f t="shared" si="1"/>
+        <v>14.833333333333334</v>
+      </c>
+      <c r="L41" s="6">
+        <f t="shared" si="2"/>
+        <v>65.166666666666671</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>8</v>
+      </c>
+      <c r="B42" s="6">
+        <v>21</v>
+      </c>
+      <c r="C42" s="5">
+        <v>8</v>
+      </c>
+      <c r="D42" s="5">
+        <v>16</v>
+      </c>
+      <c r="E42" s="5">
+        <v>18</v>
+      </c>
+      <c r="F42" s="5">
+        <v>4</v>
+      </c>
+      <c r="G42" s="5">
+        <v>10</v>
+      </c>
+      <c r="I42" s="6">
+        <f t="shared" si="1"/>
+        <v>12.833333333333334</v>
+      </c>
+      <c r="L42" s="6">
+        <f t="shared" si="2"/>
+        <v>67.166666666666671</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>9</v>
+      </c>
+      <c r="B43" s="6">
+        <v>27</v>
+      </c>
+      <c r="C43" s="5">
+        <v>23</v>
+      </c>
+      <c r="D43" s="5">
+        <v>27</v>
+      </c>
+      <c r="E43" s="5">
+        <v>17</v>
+      </c>
+      <c r="F43" s="5">
+        <v>25</v>
+      </c>
+      <c r="G43" s="5">
+        <v>18</v>
+      </c>
+      <c r="I43" s="6">
+        <f t="shared" si="1"/>
+        <v>22.833333333333332</v>
+      </c>
+      <c r="L43" s="6">
+        <f t="shared" si="2"/>
+        <v>57.166666666666671</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>10</v>
+      </c>
+      <c r="B44" s="6">
+        <v>11</v>
+      </c>
+      <c r="C44" s="5">
+        <v>19</v>
+      </c>
+      <c r="D44" s="5">
+        <v>11</v>
+      </c>
+      <c r="E44" s="5">
+        <v>8</v>
+      </c>
+      <c r="F44" s="5">
+        <v>14</v>
+      </c>
+      <c r="G44" s="5">
+        <v>16</v>
+      </c>
+      <c r="I44" s="6">
+        <f t="shared" si="1"/>
+        <v>13.166666666666666</v>
+      </c>
+      <c r="L44" s="6">
+        <f t="shared" si="2"/>
+        <v>66.833333333333329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>11</v>
+      </c>
+      <c r="B45" s="6">
+        <v>8</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2</v>
+      </c>
+      <c r="D45" s="5">
+        <v>10</v>
+      </c>
+      <c r="E45" s="5">
+        <v>8</v>
+      </c>
+      <c r="F45" s="5">
+        <v>5</v>
+      </c>
+      <c r="G45" s="5">
+        <v>6</v>
+      </c>
+      <c r="I45" s="8">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="L45" s="8">
+        <f t="shared" si="2"/>
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>12</v>
+      </c>
+      <c r="B46" s="6">
+        <v>43</v>
+      </c>
+      <c r="C46" s="5">
+        <v>46</v>
+      </c>
+      <c r="D46" s="5">
+        <v>41</v>
+      </c>
+      <c r="E46" s="5">
+        <v>44</v>
+      </c>
+      <c r="F46" s="5">
+        <v>40</v>
+      </c>
+      <c r="G46" s="5">
+        <v>40</v>
+      </c>
+      <c r="I46" s="6">
+        <f t="shared" si="1"/>
+        <v>42.333333333333336</v>
+      </c>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="6">
+        <f t="shared" si="2"/>
+        <v>37.666666666666664</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="10"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="10"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A34:G34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
